--- a/Document/5.Reference/190407_VNC_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/190407_VNC_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164C801-AC2B-49CE-AEDA-E34A7217C4F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2983838C-7801-4535-A269-A3BA2F3D0CBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,8 +143,8 @@
   </si>
   <si>
     <t>Có chức năng phân quyền theo đối tác gửi hàng:
-- Nếu Đơn vị sử dụng cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION ='1') thì lấy theo bảng MAP_USER_PARTNER.
-- Nếu Đơn vị sử dụng không cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION ='0' hoặc trống) thì lấy theo bảng CAT_PARTNER.</t>
+- Nếu Đơn vị sử dụng cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION =1) thì lấy theo bảng MAP_USER_PARTNER.
+- Nếu Đơn vị sử dụng không cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION =0) thì lấy theo bảng CAT_PARTNER.</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Document/5.Reference/190407_VNC_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/190407_VNC_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2983838C-7801-4535-A269-A3BA2F3D0CBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990F6B90-D6E2-48BC-9475-B678496DB7C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>TT</t>
   </si>
@@ -84,24 +84,12 @@
     <t>13/04/2019</t>
   </si>
   <si>
-    <t>16/04/2019</t>
-  </si>
-  <si>
     <t>17/04/2019</t>
   </si>
   <si>
-    <t>25/04/2019</t>
-  </si>
-  <si>
-    <t>29/04/2019</t>
-  </si>
-  <si>
     <t>10/05/2019</t>
   </si>
   <si>
-    <t>25/05/2019</t>
-  </si>
-  <si>
     <t>Thực hiện</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
   </si>
   <si>
     <t>Đang thực hiện</t>
-  </si>
-  <si>
-    <t>27/05/2019</t>
   </si>
   <si>
     <t>Danh sách các tính năng sửa đổi cho Công ty VNC Post
@@ -137,14 +122,20 @@
   </si>
   <si>
     <t>- Sửa trường Serial -&gt; Số lượng trên màn hình Nhập kho/Xuất kho</t>
-  </si>
-  <si>
-    <t>08/05/2019</t>
   </si>
   <si>
     <t>Có chức năng phân quyền theo đối tác gửi hàng:
 - Nếu Đơn vị sử dụng cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION =1) thì lấy theo bảng MAP_USER_PARTNER.
 - Nếu Đơn vị sử dụng không cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION =0) thì lấy theo bảng CAT_PARTNER.</t>
+  </si>
+  <si>
+    <t>Không làm chức năng này</t>
+  </si>
+  <si>
+    <t>15/05/2019</t>
+  </si>
+  <si>
+    <t>DoanLV4</t>
   </si>
 </sst>
 </file>
@@ -176,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -268,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -645,13 +645,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -668,11 +668,11 @@
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -686,14 +686,14 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -704,17 +704,17 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -725,17 +725,17 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -743,20 +743,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -769,13 +769,11 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -788,13 +786,11 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
@@ -807,13 +803,11 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -826,13 +820,11 @@
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Document/5.Reference/190407_VNC_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/190407_VNC_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990F6B90-D6E2-48BC-9475-B678496DB7C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C94E2-E3EA-4518-9CE9-2424E61C9940}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>TT</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Có chức năng phân quyền theo đối tác gửi hàng:
 - Nếu Đơn vị sử dụng cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION =1) thì lấy theo bảng MAP_USER_PARTNER.
 - Nếu Đơn vị sử dụng không cần phân quyền theo đối tác gửi hàng (CAT_CUSTOMER.PARTNER_PERMISSION =0) thì lấy theo bảng CAT_PARTNER.</t>
-  </si>
-  <si>
-    <t>Không làm chức năng này</t>
   </si>
   <si>
     <t>15/05/2019</t>
@@ -167,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -265,9 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -709,12 +697,12 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>33</v>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -735,7 +723,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -749,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
